--- a/guru_kelas_mapel_kelas.xlsx
+++ b/guru_kelas_mapel_kelas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkmu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\monitoring-guru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7696883-1C0D-450A-8A3E-B6EF8F2E54C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD15A9E-3AF3-4ABD-B2E4-E42C0CDA57C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A599E5EC-5CBF-49E3-8530-1BF8D27D66CD}"/>
+    <workbookView xWindow="33990" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{A599E5EC-5CBF-49E3-8530-1BF8D27D66CD}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5481" uniqueCount="5460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="5461">
   <si>
     <t>no</t>
   </si>
@@ -16421,13 +16421,16 @@
   </si>
   <si>
     <t>id_kelas</t>
+  </si>
+  <si>
+    <t>agussalim2828</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16438,6 +16441,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -16467,10 +16479,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -16485,8 +16498,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16801,8 +16816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89323F2A-BCE0-4596-910F-B14CB29E413F}">
   <dimension ref="A1:G1793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1721" workbookViewId="0">
-      <selection activeCell="G1733" sqref="G1733"/>
+    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="D506" sqref="D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16916,7 +16931,7 @@
       <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G6" t="s">
@@ -16936,8 +16951,8 @@
       <c r="F7" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="2">
-        <v>339160</v>
+      <c r="G7" s="2" t="s">
+        <v>5460</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17851,7 +17866,7 @@
       <c r="D61" t="s">
         <v>45</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G61" t="s">
@@ -25552,7 +25567,7 @@
       <c r="D514" t="s">
         <v>4240</v>
       </c>
-      <c r="F514" t="s">
+      <c r="F514" s="6" t="s">
         <v>4239</v>
       </c>
       <c r="G514" t="s">
@@ -47304,6 +47319,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{B0C227E5-93A4-48AE-9481-11BACAEDCBE4}"/>
+    <hyperlink ref="F61" r:id="rId2" xr:uid="{F8D676CE-9D33-411D-9B22-A0AC1553B68E}"/>
+    <hyperlink ref="F514" r:id="rId3" xr:uid="{6BC5C9BF-0A87-44DE-90B0-393D615CB1B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49466,8 +49486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BDF5DD-0BF1-4AB4-9BCF-C285DAEAA00E}">
   <dimension ref="A1:D1689"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1689"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73125,12 +73145,576 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5D31A-9B73-4F45-B22D-F52324557C1B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>102</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>74</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>63</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>86</v>
+      </c>
+      <c r="C51">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
